--- a/ContractJD.xlsx
+++ b/ContractJD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CDF1AA-A8F6-4FE2-A56A-AF102511514E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D37712-4DB5-40E8-B201-ABF604A91D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
   </si>
   <si>
     <t>Not needed</t>
@@ -601,7 +598,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,10 +893,10 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
         <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
